--- a/files/teaching-resources/monmouthcollege-busi-201/BUSI201-Q01-Workbook-Sol.xlsx
+++ b/files/teaching-resources/monmouthcollege-busi-201/BUSI201-Q01-Workbook-Sol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Dropbox\Teaching\Monmouth College\[BUSI201] Business Data Analysis\BUSI201-Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0A3F44-7EE3-4233-B9A0-8F6CE771DC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6D45A2-0514-4305-933E-DF77EA69EF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5DB8FA3A-2BB8-48BB-B48E-81E6580A7CFB}"/>
   </bookViews>
@@ -2515,7 +2515,7 @@
         <v>309</v>
       </c>
       <c r="G9" s="40">
-        <f>IF(F9=$I$4,IF(D9=$H$5,$I$5,$I$6),$J$6)</f>
+        <f>IF(F9=$I$4,IF(D9=$H$5,$I$5,$I$6),IF(F9=$J$4,$J$6,"Error"))</f>
         <v>0.06</v>
       </c>
       <c r="H9" s="42">
@@ -2548,7 +2548,7 @@
         <v>312</v>
       </c>
       <c r="G10" s="40">
-        <f t="shared" ref="G10:G48" si="0">IF(F10=$I$4,IF(D10=$H$5,$I$5,$I$6),$J$6)</f>
+        <f t="shared" ref="G10:G48" si="0">IF(F10=$I$4,IF(D10=$H$5,$I$5,$I$6),IF(F10=$J$4,$J$6,"Error"))</f>
         <v>0.02</v>
       </c>
       <c r="H10" s="42">
